--- a/ONCHO/Entomological survey Survey/Nigeria/2024/delta/nov 2024/ng_oncho_2411_3_flies_sort_del.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/delta/nov 2024/ng_oncho_2411_3_flies_sort_del.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\delta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\delta\nov 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B472910-E8FE-4959-AA0C-354E00799EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50356906-C903-465D-A019-6DE6D1384E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -606,9 +606,6 @@
     <t>ASHAKA</t>
   </si>
   <si>
-    <t>UTAGBAUNO</t>
-  </si>
-  <si>
     <t>ETUA</t>
   </si>
   <si>
@@ -654,9 +651,6 @@
     <t>OGBOLI</t>
   </si>
   <si>
-    <t>ILLA</t>
-  </si>
-  <si>
     <t>BOLU ANGIAMA</t>
   </si>
   <si>
@@ -729,9 +723,6 @@
     <t>DEL_ANN_N_013</t>
   </si>
   <si>
-    <t>DEL_ANN_N_014</t>
-  </si>
-  <si>
     <t>DEL_ANN_S_015</t>
   </si>
   <si>
@@ -972,10 +963,19 @@
     <t>DEL_WAN_M_094</t>
   </si>
   <si>
-    <t>ng_oncho_2408_3_flies_sort_del_v2</t>
-  </si>
-  <si>
-    <t>(Delta) 3. Blackfly Sorting Modules V2</t>
+    <t xml:space="preserve">UTAGBAUNO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILLA </t>
+  </si>
+  <si>
+    <t>DEL_OSN_N_014</t>
+  </si>
+  <si>
+    <t>(Delta) 3. Blackfly Sorting Modules V3</t>
+  </si>
+  <si>
+    <t>ng_oncho_2408_3_flies_sort_del_v3</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1209,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1550,7 +1571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2856,10 +2877,10 @@
         <v>105</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E53" t="s">
         <v>117</v>
@@ -2870,13 +2891,13 @@
         <v>105</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2884,10 +2905,10 @@
         <v>105</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E55" t="s">
         <v>118</v>
@@ -2898,10 +2919,10 @@
         <v>105</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E56" t="s">
         <v>118</v>
@@ -2912,10 +2933,10 @@
         <v>105</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E57" t="s">
         <v>118</v>
@@ -2926,10 +2947,10 @@
         <v>105</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E58" t="s">
         <v>118</v>
@@ -2940,10 +2961,10 @@
         <v>105</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E59" t="s">
         <v>118</v>
@@ -2954,10 +2975,10 @@
         <v>105</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E60" t="s">
         <v>118</v>
@@ -2968,10 +2989,10 @@
         <v>105</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E61" t="s">
         <v>118</v>
@@ -2982,10 +3003,10 @@
         <v>105</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E62" t="s">
         <v>118</v>
@@ -2996,10 +3017,10 @@
         <v>105</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E63" t="s">
         <v>118</v>
@@ -3010,13 +3031,13 @@
         <v>105</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E64" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3024,10 +3045,10 @@
         <v>105</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E65" t="s">
         <v>119</v>
@@ -3038,13 +3059,13 @@
         <v>105</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3052,10 +3073,10 @@
         <v>105</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E67" t="s">
         <v>120</v>
@@ -3066,10 +3087,10 @@
         <v>105</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E68" t="s">
         <v>120</v>
@@ -3080,10 +3101,10 @@
         <v>105</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E69" t="s">
         <v>120</v>
@@ -3094,13 +3115,13 @@
         <v>105</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E70" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3108,10 +3129,10 @@
         <v>105</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E71" t="s">
         <v>121</v>
@@ -3122,10 +3143,10 @@
         <v>105</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E72" t="s">
         <v>121</v>
@@ -3136,10 +3157,10 @@
         <v>105</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E73" t="s">
         <v>121</v>
@@ -3150,10 +3171,10 @@
         <v>105</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E74" t="s">
         <v>121</v>
@@ -3164,10 +3185,10 @@
         <v>105</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E75" t="s">
         <v>121</v>
@@ -3178,13 +3199,13 @@
         <v>105</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E76" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3192,10 +3213,10 @@
         <v>105</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E77" t="s">
         <v>122</v>
@@ -3206,10 +3227,10 @@
         <v>105</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E78" t="s">
         <v>122</v>
@@ -3220,10 +3241,10 @@
         <v>105</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E79" t="s">
         <v>122</v>
@@ -3234,13 +3255,13 @@
         <v>105</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3248,10 +3269,10 @@
         <v>105</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E81" t="s">
         <v>123</v>
@@ -3262,13 +3283,13 @@
         <v>105</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E82" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3276,10 +3297,10 @@
         <v>105</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E83" t="s">
         <v>124</v>
@@ -3290,10 +3311,10 @@
         <v>105</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E84" t="s">
         <v>124</v>
@@ -3304,10 +3325,10 @@
         <v>105</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E85" t="s">
         <v>124</v>
@@ -3318,13 +3339,13 @@
         <v>105</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E86" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3332,13 +3353,13 @@
         <v>105</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E87" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3346,10 +3367,10 @@
         <v>105</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E88" t="s">
         <v>126</v>
@@ -3360,10 +3381,10 @@
         <v>105</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E89" t="s">
         <v>126</v>
@@ -3374,10 +3395,10 @@
         <v>105</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E90" t="s">
         <v>126</v>
@@ -3388,10 +3409,10 @@
         <v>105</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E91" t="s">
         <v>126</v>
@@ -3402,10 +3423,10 @@
         <v>105</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E92" t="s">
         <v>126</v>
@@ -3416,13 +3437,13 @@
         <v>105</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3430,10 +3451,10 @@
         <v>105</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>190</v>
+        <v>308</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>190</v>
+        <v>308</v>
       </c>
       <c r="E94" t="s">
         <v>127</v>
@@ -3444,13 +3465,13 @@
         <v>105</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E95" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3458,13 +3479,13 @@
         <v>105</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E96" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3472,10 +3493,10 @@
         <v>105</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E97" t="s">
         <v>129</v>
@@ -3500,10 +3521,10 @@
         <v>105</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E99" t="s">
         <v>129</v>
@@ -3514,10 +3535,10 @@
         <v>105</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="E100" t="s">
         <v>129</v>
@@ -3528,10 +3549,10 @@
         <v>105</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E101" t="s">
         <v>129</v>
@@ -3542,10 +3563,10 @@
         <v>105</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E102" t="s">
         <v>129</v>
@@ -3556,10 +3577,10 @@
         <v>105</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E103" t="s">
         <v>129</v>
@@ -3570,10 +3591,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="E104" t="s">
         <v>129</v>
@@ -3584,10 +3605,10 @@
         <v>105</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E105" t="s">
         <v>129</v>
@@ -3598,10 +3619,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E106" t="s">
         <v>130</v>
@@ -3612,10 +3633,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E107" t="s">
         <v>130</v>
@@ -3626,10 +3647,10 @@
         <v>105</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E108" t="s">
         <v>130</v>
@@ -3640,10 +3661,10 @@
         <v>105</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E109" t="s">
         <v>130</v>
@@ -3654,10 +3675,10 @@
         <v>105</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E110" t="s">
         <v>130</v>
@@ -3668,10 +3689,10 @@
         <v>105</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E111" t="s">
         <v>131</v>
@@ -3682,10 +3703,10 @@
         <v>105</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E112" t="s">
         <v>132</v>
@@ -3696,10 +3717,10 @@
         <v>105</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E113" t="s">
         <v>132</v>
@@ -3710,10 +3731,10 @@
         <v>105</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E114" t="s">
         <v>133</v>
@@ -3724,10 +3745,10 @@
         <v>105</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E115" t="s">
         <v>133</v>
@@ -3738,10 +3759,10 @@
         <v>105</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E116" t="s">
         <v>133</v>
@@ -3752,10 +3773,10 @@
         <v>105</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E117" t="s">
         <v>134</v>
@@ -3766,10 +3787,10 @@
         <v>105</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E118" t="s">
         <v>134</v>
@@ -3780,10 +3801,10 @@
         <v>105</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E119" t="s">
         <v>134</v>
@@ -3794,10 +3815,10 @@
         <v>105</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E120" t="s">
         <v>134</v>
@@ -3808,24 +3829,28 @@
         <v>105</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E121" t="s">
         <v>135</v>
       </c>
     </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="25"/>
+      <c r="C122" s="25"/>
+    </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="23" t="s">
         <v>72</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F123" t="s">
         <v>136</v>
@@ -3836,10 +3861,10 @@
         <v>72</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F124" t="s">
         <v>136</v>
@@ -3850,10 +3875,10 @@
         <v>72</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F125" t="s">
         <v>136</v>
@@ -3864,10 +3889,10 @@
         <v>72</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F126" t="s">
         <v>137</v>
@@ -3878,10 +3903,10 @@
         <v>72</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F127" t="s">
         <v>138</v>
@@ -3892,10 +3917,10 @@
         <v>72</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F128" t="s">
         <v>139</v>
@@ -3906,10 +3931,10 @@
         <v>72</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F129" t="s">
         <v>140</v>
@@ -3920,10 +3945,10 @@
         <v>72</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F130" t="s">
         <v>141</v>
@@ -3934,10 +3959,10 @@
         <v>72</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F131" t="s">
         <v>141</v>
@@ -3948,10 +3973,10 @@
         <v>72</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F132" t="s">
         <v>141</v>
@@ -3962,10 +3987,10 @@
         <v>72</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F133" t="s">
         <v>141</v>
@@ -3976,10 +4001,10 @@
         <v>72</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F134" t="s">
         <v>142</v>
@@ -3990,10 +4015,10 @@
         <v>72</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F135" t="s">
         <v>143</v>
@@ -4004,10 +4029,10 @@
         <v>72</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="F136" t="s">
         <v>144</v>
@@ -4018,10 +4043,10 @@
         <v>72</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F137" t="s">
         <v>145</v>
@@ -4032,10 +4057,10 @@
         <v>72</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F138" t="s">
         <v>146</v>
@@ -4046,10 +4071,10 @@
         <v>72</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F139" t="s">
         <v>147</v>
@@ -4060,10 +4085,10 @@
         <v>72</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F140" t="s">
         <v>148</v>
@@ -4074,10 +4099,10 @@
         <v>72</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F141" t="s">
         <v>149</v>
@@ -4088,10 +4113,10 @@
         <v>72</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F142" t="s">
         <v>150</v>
@@ -4102,10 +4127,10 @@
         <v>72</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F143" t="s">
         <v>151</v>
@@ -4116,10 +4141,10 @@
         <v>72</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F144" t="s">
         <v>151</v>
@@ -4130,10 +4155,10 @@
         <v>72</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F145" t="s">
         <v>151</v>
@@ -4144,10 +4169,10 @@
         <v>72</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F146" t="s">
         <v>151</v>
@@ -4158,10 +4183,10 @@
         <v>72</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F147" t="s">
         <v>151</v>
@@ -4172,10 +4197,10 @@
         <v>72</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F148" t="s">
         <v>151</v>
@@ -4186,10 +4211,10 @@
         <v>72</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F149" t="s">
         <v>151</v>
@@ -4200,10 +4225,10 @@
         <v>72</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F150" t="s">
         <v>152</v>
@@ -4214,10 +4239,10 @@
         <v>72</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F151" t="s">
         <v>153</v>
@@ -4228,10 +4253,10 @@
         <v>72</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F152" t="s">
         <v>154</v>
@@ -4242,10 +4267,10 @@
         <v>72</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F153" t="s">
         <v>155</v>
@@ -4256,10 +4281,10 @@
         <v>72</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F154" t="s">
         <v>156</v>
@@ -4270,10 +4295,10 @@
         <v>72</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F155" t="s">
         <v>157</v>
@@ -4284,10 +4309,10 @@
         <v>72</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F156" t="s">
         <v>158</v>
@@ -4298,10 +4323,10 @@
         <v>72</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F157" t="s">
         <v>159</v>
@@ -4312,10 +4337,10 @@
         <v>72</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F158" t="s">
         <v>160</v>
@@ -4326,10 +4351,10 @@
         <v>72</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F159" t="s">
         <v>161</v>
@@ -4340,10 +4365,10 @@
         <v>72</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F160" t="s">
         <v>162</v>
@@ -4354,10 +4379,10 @@
         <v>72</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F161" t="s">
         <v>163</v>
@@ -4368,10 +4393,10 @@
         <v>72</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F162" t="s">
         <v>164</v>
@@ -4382,10 +4407,10 @@
         <v>72</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F163" t="s">
         <v>165</v>
@@ -4396,10 +4421,10 @@
         <v>72</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F164" t="s">
         <v>166</v>
@@ -4410,10 +4435,10 @@
         <v>72</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F165" t="s">
         <v>167</v>
@@ -4424,10 +4449,10 @@
         <v>72</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F166" t="s">
         <v>168</v>
@@ -4438,10 +4463,10 @@
         <v>72</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F167" t="s">
         <v>169</v>
@@ -4452,10 +4477,10 @@
         <v>72</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F168" t="s">
         <v>170</v>
@@ -4466,10 +4491,10 @@
         <v>72</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F169" t="s">
         <v>171</v>
@@ -4480,10 +4505,10 @@
         <v>72</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F170" t="s">
         <v>172</v>
@@ -4494,10 +4519,10 @@
         <v>72</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F171" t="s">
         <v>173</v>
@@ -4508,10 +4533,10 @@
         <v>72</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F172" t="s">
         <v>174</v>
@@ -4522,10 +4547,10 @@
         <v>72</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F173" t="s">
         <v>175</v>
@@ -4536,10 +4561,10 @@
         <v>72</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F174" t="s">
         <v>176</v>
@@ -4550,10 +4575,10 @@
         <v>72</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F175" t="s">
         <v>177</v>
@@ -4564,10 +4589,10 @@
         <v>72</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F176" t="s">
         <v>178</v>
@@ -4578,10 +4603,10 @@
         <v>72</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F177" t="s">
         <v>179</v>
@@ -4592,10 +4617,10 @@
         <v>72</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F178" t="s">
         <v>180</v>
@@ -4606,10 +4631,10 @@
         <v>72</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F179" t="s">
         <v>181</v>
@@ -4620,10 +4645,10 @@
         <v>72</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F180" t="s">
         <v>182</v>
@@ -4634,10 +4659,10 @@
         <v>72</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F181" t="s">
         <v>183</v>
@@ -4648,10 +4673,10 @@
         <v>72</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F182" t="s">
         <v>184</v>
@@ -4662,10 +4687,10 @@
         <v>72</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F183" t="s">
         <v>185</v>
@@ -4676,10 +4701,10 @@
         <v>72</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F184" t="s">
         <v>186</v>
@@ -4690,10 +4715,10 @@
         <v>72</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F185" t="s">
         <v>187</v>
@@ -4704,10 +4729,10 @@
         <v>72</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F186" t="s">
         <v>188</v>
@@ -4718,13 +4743,13 @@
         <v>72</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F187" t="s">
-        <v>189</v>
+        <v>308</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4732,13 +4757,13 @@
         <v>72</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F188" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4746,13 +4771,13 @@
         <v>72</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F189" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -4760,13 +4785,13 @@
         <v>72</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F190" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -4774,13 +4799,13 @@
         <v>72</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F191" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -4788,13 +4813,13 @@
         <v>72</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F192" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4802,13 +4827,13 @@
         <v>72</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F193" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -4816,13 +4841,13 @@
         <v>72</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -4830,13 +4855,13 @@
         <v>72</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F195" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -4844,13 +4869,13 @@
         <v>72</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F196" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -4858,13 +4883,13 @@
         <v>72</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F197" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4872,13 +4897,13 @@
         <v>72</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F198" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4886,13 +4911,13 @@
         <v>72</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F199" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -4900,13 +4925,13 @@
         <v>72</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F200" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -4914,13 +4939,13 @@
         <v>72</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F201" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -4928,13 +4953,13 @@
         <v>72</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F202" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -4942,13 +4967,13 @@
         <v>72</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F203" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -4956,13 +4981,13 @@
         <v>72</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F204" t="s">
-        <v>205</v>
+        <v>309</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -4970,13 +4995,13 @@
         <v>72</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F205" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -4984,13 +5009,13 @@
         <v>72</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F206" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -4998,13 +5023,13 @@
         <v>72</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F207" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5012,13 +5037,13 @@
         <v>72</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F208" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5026,13 +5051,13 @@
         <v>72</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F209" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5040,13 +5065,13 @@
         <v>72</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F210" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5054,13 +5079,13 @@
         <v>72</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F211" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5068,13 +5093,13 @@
         <v>72</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F212" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5082,13 +5107,13 @@
         <v>72</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F213" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5096,13 +5121,13 @@
         <v>72</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F214" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5110,13 +5135,13 @@
         <v>72</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F215" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5124,16 +5149,20 @@
         <v>72</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F216" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B19:B216">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -5143,8 +5172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5168,10 +5197,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
